--- a/department/danh-sach-de-tai-thuc-tap.xlsx
+++ b/department/danh-sach-de-tai-thuc-tap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Năm học</t>
   </si>
@@ -26,10 +26,25 @@
     <t>Bộ môn</t>
   </si>
   <si>
+    <t>Mã SV</t>
+  </si>
+  <si>
+    <t>Tên SV</t>
+  </si>
+  <si>
+    <t>Mã lớp</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Cơ sở TT</t>
+  </si>
+  <si>
     <t>GV hướng dẫn</t>
   </si>
   <si>
-    <t>Đề tài thực tập</t>
+    <t>Tên đề tài</t>
   </si>
   <si>
     <t>Loại đề tài</t>
@@ -41,7 +56,7 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>2022-2023</t>
+    <t>2023-2024</t>
   </si>
   <si>
     <t>2</t>
@@ -50,13 +65,28 @@
     <t>Công Nghệ Thông Tin</t>
   </si>
   <si>
-    <t>Mạng và Hệ thống thông tin</t>
-  </si>
-  <si>
-    <t>Phạm Quang Dũng</t>
-  </si>
-  <si>
-    <t>Xây dựng website quản lý cửa hàng bán điện thoại</t>
+    <t>Khoa học máy tính</t>
+  </si>
+  <si>
+    <t>654661</t>
+  </si>
+  <si>
+    <t>Cam Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>K65CNTTA</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>công ty cổ phần GoGroup</t>
+  </si>
+  <si>
+    <t>Phạm Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>tôi - 1,2; hơn nữa…"he(em)[bạn]{} &amp; tác giả.</t>
   </si>
   <si>
     <t>Thực tập chuyên ngành</t>
@@ -66,24 +96,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Xây dựng website quản lý sinh viên cấp khoa</t>
-  </si>
-  <si>
-    <t>Trần Vũ Hà</t>
-  </si>
-  <si>
-    <t>Xây dựng website bán quần áo</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thảo</t>
-  </si>
-  <si>
-    <t>Xây dựng website bán giày</t>
-  </si>
-  <si>
-    <t>Xây dựng website mua bán acc liên quân mobile</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,150 +174,64 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
